--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Ap.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Ap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77702A72-0926-4243-ABCF-6C380D38EE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9266CF00-4A02-40D3-BC48-DBE4DD877D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="412">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2111,6 +2111,11 @@
   <si>
     <t>Usp_L7_LoanIfrs9Ap_Upd</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取月底日資料，並以天數表示
+2021/12/13長度由3改為4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3261,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2"/>
@@ -3841,7 +3846,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="32.4">
       <c r="A28" s="21">
         <v>20</v>
       </c>
@@ -3855,11 +3860,11 @@
         <v>29</v>
       </c>
       <c r="E28" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="86" t="s">
-        <v>100</v>
+        <v>411</v>
       </c>
       <c r="H28" s="89" t="s">
         <v>376</v>
@@ -4976,7 +4981,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:XFD7 A57:XFD1048576 A56:G56 I56:XFD56 A27:XFD34 A26:G26 I26:XFD26 A9:XFD14 A8:G8 I8:XFD8 A45:XFD47 A44 F44:G44 A41:XFD43 A40:D40 F40:XFD40 A55:B55 A48:B48 D48:XFD48 A49:B49 D49:F49 H49:XFD49 A50:B50 D50:XFD50 B52 D52:XFD52 B53 D53:XFD53 B54 D54:XFD54 D55:XFD55 A16:XFD25 A15:B15 D15 F15:G15 I15:XFD15 A1:B1 D1:XFD1 A36:XFD39 A35 I35:XFD35 C44:D44 I44:XFD44 C35:G35" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:XFD7 A57:XFD1048576 A56:G56 I56:XFD56 A27:XFD27 A26:G26 I26:XFD26 A9:XFD14 A8:G8 I8:XFD8 A45:XFD47 A44 F44:G44 A41:XFD43 A40:D40 F40:XFD40 A55:B55 A48:B48 D48:XFD48 A49:B49 D49:F49 H49:XFD49 A50:B50 D50:XFD50 B52 D52:XFD52 B53 D53:XFD53 B54 D54:XFD54 D55:XFD55 A16:XFD25 A15:B15 D15 F15:G15 I15:XFD15 A1:B1 D1:XFD1 A36:XFD39 A35 I35:XFD35 C44:D44 I44:XFD44 C35:G35 A29:XFD34 A28:D28 F28 H28:XFD28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5020,7 +5025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Ap.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Ap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9266CF00-4A02-40D3-BC48-DBE4DD877D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0846D85B-0442-418E-A7D7-2CDE29B215B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="422">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1811,34 +1811,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>截至月底日當時之還款方式
-1=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">按期繳息(到期還本)；
-2=平均攤還本息；
-3=平均攤還本金；
-4=到期繳息還本
-</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>截至月底日當時之利率調整方式
-1=機動；
-2=固定；
-3=固定階梯；
-4=浮動階梯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>截至月底日當時之還本週期
 若為到期還本，則填入0；
 若按月還本，則填入1；
@@ -2115,6 +2087,94 @@
   <si>
     <t>抓取月底日資料，並以天數表示
 2021/12/13長度由3改為4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:正常
+2:催收</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法務費："MonthlyFacBal"."LawFee" (依照戶號+額度加總法務費，並按餘額比例分配至每一筆) +
+火險費："MonthlyFacBal"."FireFee" (依照戶號+額度加總火險費，並按餘額比例分配至每一筆)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>至小數點後第6位。例如，利率為2.12%，則本欄位值表示0.021200。契約是階梯式...etc,抓取第一年的合約利率(不管加碼利率)(ex：第一年1.4%，第二年1.5%，則本欄位填入1.4%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>截至月底日當時之還款方式
+1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">按期繳息(到期還本)
+2:平均攤還本息
+3:平均攤還本金
+4:到期繳息還本
+</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至月底日當時之利率調整方式
+1:機動
+2:固定
+3:固定階梯
+4:浮動階梯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:臺北市
+B:新北市
+C:桃園市
+D:台中市
+E:台南市
+F:高雄市
+G:其他(基隆市、新竹縣、新竹市、苗栗縣、彰化縣、南投縣、雲林縣、嘉義縣、嘉義市、屏東縣、宜蘭縣、花蓮縣、臺東縣、金門縣、澎湖縣、連江縣、南海島、釣魚臺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:企業戶
+2:個人戶
+依現行代碼，唯企業戶與個人戶之分類需參考信用評等模型。自然人採用企金自然人評等模型者，應歸類為企業戶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作為群組分類。Ex：1=員工；2=車貸；3＝房貸；4＝政府優惠貸款…etc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:非循環動用
+1:循環動用
+若註記為1，且本金餘額＜核准金額，但是可動用餘額=0；需確認是否實為循環額度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:是
+0:否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:台幣
+2:美元
+3:澳幣
+4:人民幣
+5:歐元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:一般
+2:分紅
+3:利變
+4:OIU</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3266,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2"/>
@@ -3288,10 +3348,10 @@
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="24"/>
@@ -3441,7 +3501,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="84"/>
       <c r="H10" s="89" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3452,7 +3512,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>30</v>
@@ -3462,10 +3522,10 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="84" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H11" s="89" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3509,7 +3569,7 @@
       <c r="F13" s="21"/>
       <c r="G13" s="84"/>
       <c r="H13" s="88" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3542,7 +3602,7 @@
         <v>125</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>30</v>
@@ -3553,7 +3613,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="84"/>
       <c r="H15" s="88" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45">
@@ -3574,10 +3634,10 @@
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="84" t="s">
-        <v>63</v>
+        <v>410</v>
       </c>
       <c r="H16" s="88" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3601,7 +3661,7 @@
         <v>331</v>
       </c>
       <c r="H17" s="88" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3623,7 +3683,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="84"/>
       <c r="H18" s="89" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1">
@@ -3645,7 +3705,7 @@
       <c r="F19" s="26"/>
       <c r="G19" s="85"/>
       <c r="H19" s="88" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3656,7 +3716,7 @@
         <v>68</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>65</v>
@@ -3667,7 +3727,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="84"/>
       <c r="H20" s="89" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3678,7 +3738,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>29</v>
@@ -3693,7 +3753,7 @@
         <v>91</v>
       </c>
       <c r="H21" s="88" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3704,7 +3764,7 @@
         <v>93</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>29</v>
@@ -3717,7 +3777,7 @@
       </c>
       <c r="G22" s="84"/>
       <c r="H22" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3741,7 +3801,7 @@
       </c>
       <c r="G23" s="84"/>
       <c r="H23" s="88" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3752,7 +3812,7 @@
         <v>94</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>29</v>
@@ -3765,7 +3825,7 @@
       </c>
       <c r="G24" s="84"/>
       <c r="H24" s="89" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="45">
@@ -3791,7 +3851,7 @@
         <v>97</v>
       </c>
       <c r="H25" s="88" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="68.400000000000006">
@@ -3814,10 +3874,10 @@
         <v>2</v>
       </c>
       <c r="G26" s="93" t="s">
-        <v>335</v>
+        <v>411</v>
       </c>
       <c r="H26" s="91" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="64.8">
@@ -3843,7 +3903,7 @@
         <v>95</v>
       </c>
       <c r="H27" s="89" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="32.4">
@@ -3864,10 +3924,10 @@
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="86" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H28" s="89" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3891,7 +3951,7 @@
         <v>101</v>
       </c>
       <c r="H29" s="89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3915,7 +3975,7 @@
         <v>102</v>
       </c>
       <c r="H30" s="89" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3941,7 +4001,7 @@
         <v>103</v>
       </c>
       <c r="H31" s="89" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="32.4">
@@ -3965,7 +4025,7 @@
         <v>111</v>
       </c>
       <c r="H32" s="88" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="64.8">
@@ -3988,10 +4048,10 @@
         <v>6</v>
       </c>
       <c r="G33" s="84" t="s">
-        <v>239</v>
+        <v>412</v>
       </c>
       <c r="H33" s="88" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="97.2">
@@ -4012,10 +4072,10 @@
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="84" t="s">
-        <v>344</v>
+        <v>413</v>
       </c>
       <c r="H34" s="88" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="105">
@@ -4023,7 +4083,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>51</v>
@@ -4036,10 +4096,10 @@
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="84" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="H35" s="88" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="97.2">
@@ -4060,10 +4120,10 @@
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="84" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H36" s="88" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="97.2">
@@ -4084,10 +4144,10 @@
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="84" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H37" s="88" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4109,7 +4169,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="84"/>
       <c r="H38" s="88" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -4133,7 +4193,7 @@
         <v>79</v>
       </c>
       <c r="H39" s="88" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" ht="162">
@@ -4141,7 +4201,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>297</v>
@@ -4154,10 +4214,10 @@
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="85" t="s">
-        <v>240</v>
+        <v>415</v>
       </c>
       <c r="H40" s="90" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4179,7 +4239,7 @@
       <c r="F41" s="21"/>
       <c r="G41" s="84"/>
       <c r="H41" s="88" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="81">
@@ -4200,10 +4260,10 @@
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="84" t="s">
-        <v>241</v>
+        <v>416</v>
       </c>
       <c r="H42" s="88" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="1" customFormat="1">
@@ -4211,7 +4271,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>121</v>
@@ -4225,7 +4285,7 @@
       <c r="F43" s="26"/>
       <c r="G43" s="85"/>
       <c r="H43" s="90" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" ht="32.4">
@@ -4233,7 +4293,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>74</v>
@@ -4246,10 +4306,10 @@
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="85" t="s">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="H44" s="88" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="1" customFormat="1">
@@ -4273,7 +4333,7 @@
       </c>
       <c r="G45" s="85"/>
       <c r="H45" s="88" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4295,7 +4355,7 @@
       <c r="F46" s="21"/>
       <c r="G46" s="84"/>
       <c r="H46" s="88" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4317,7 +4377,7 @@
       <c r="F47" s="21"/>
       <c r="G47" s="84"/>
       <c r="H47" s="88" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45">
@@ -4328,7 +4388,7 @@
         <v>255</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D48" s="27" t="s">
         <v>29</v>
@@ -4341,10 +4401,10 @@
       </c>
       <c r="G48" s="84"/>
       <c r="H48" s="88" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="48.6">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="64.8">
       <c r="A49" s="21">
         <v>41</v>
       </c>
@@ -4362,13 +4422,13 @@
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="84" t="s">
-        <v>243</v>
+        <v>418</v>
       </c>
       <c r="H49" s="88" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="32.4">
       <c r="A50" s="21">
         <v>42</v>
       </c>
@@ -4386,10 +4446,10 @@
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="84" t="s">
-        <v>244</v>
+        <v>419</v>
       </c>
       <c r="H50" s="88" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4397,7 +4457,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>319</v>
@@ -4413,10 +4473,10 @@
       </c>
       <c r="G51" s="84"/>
       <c r="H51" s="88" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="81">
       <c r="A52" s="21">
         <v>44</v>
       </c>
@@ -4434,18 +4494,18 @@
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="84" t="s">
-        <v>245</v>
+        <v>420</v>
       </c>
       <c r="H52" s="88" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="64.8">
       <c r="A53" s="21">
         <v>45</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>138</v>
@@ -4458,10 +4518,10 @@
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="84" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="H53" s="88" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4485,7 +4545,7 @@
         <v>322</v>
       </c>
       <c r="H54" s="88" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4511,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="88" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4981,7 +5041,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:XFD7 A57:XFD1048576 A56:G56 I56:XFD56 A27:XFD27 A26:G26 I26:XFD26 A9:XFD14 A8:G8 I8:XFD8 A45:XFD47 A44 F44:G44 A41:XFD43 A40:D40 F40:XFD40 A55:B55 A48:B48 D48:XFD48 A49:B49 D49:F49 H49:XFD49 A50:B50 D50:XFD50 B52 D52:XFD52 B53 D53:XFD53 B54 D54:XFD54 D55:XFD55 A16:XFD25 A15:B15 D15 F15:G15 I15:XFD15 A1:B1 D1:XFD1 A36:XFD39 A35 I35:XFD35 C44:D44 I44:XFD44 C35:G35 A29:XFD34 A28:D28 F28 H28:XFD28" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:XFD7 A57:XFD1048576 A56:G56 I56:XFD56 A27:XFD27 A26:F26 I26:XFD26 A9:XFD14 A8:G8 I8:XFD8 A45:XFD47 A44 F44 A41:XFD41 A40:D40 F40 A55:B55 A48:B48 D48:XFD48 A49:B49 D49:F49 H49:XFD49 A50:B50 D50:F50 B52 D52:F52 B53 D53:F53 B54 D54:XFD54 D55:XFD55 A17:XFD25 A15:B15 D15 F15:G15 I15:XFD15 A1:B1 D1:XFD1 A36:XFD39 A35 I35:XFD35 C44:D44 I44:XFD44 C35:F35 A29:XFD32 A28:D28 F28 H28:XFD28 A16:F16 H16:XFD16 A34:F34 H34:XFD34 A33:F33 H33:XFD33 H40:XFD40 A43:XFD43 A42:F42 H42:XFD42 H50:XFD50 H52:XFD52 H53:XFD53" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5050,13 +5110,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5081,7 +5141,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="129.6">
       <c r="A1" s="77" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:1">
